--- a/VERU.xlsx
+++ b/VERU.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin\code\models\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Martin Shkreli - DL\models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43C051BB-9806-4032-B0D9-5B15D1583D24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B90064E3-EEB6-4D78-A756-01A8E78A75B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8310" yWindow="5205" windowWidth="19320" windowHeight="9450" xr2:uid="{A0EE382D-72E7-44C3-BADC-A57BEE93DD6C}"/>
+    <workbookView xWindow="11210" yWindow="3730" windowWidth="22530" windowHeight="16580" xr2:uid="{A0EE382D-72E7-44C3-BADC-A57BEE93DD6C}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="27">
   <si>
     <t>Price</t>
   </si>
@@ -105,6 +105,18 @@
   </si>
   <si>
     <t>small difference in ex-US mortality</t>
+  </si>
+  <si>
+    <t>enobosarm</t>
+  </si>
+  <si>
+    <t>SARM</t>
+  </si>
+  <si>
+    <t>muscle loss</t>
+  </si>
+  <si>
+    <t>Q324</t>
   </si>
 </sst>
 </file>
@@ -259,7 +271,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
@@ -267,6 +278,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyBorder="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -289,16 +301,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>131150</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>573087</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>139087</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>76198</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>325437</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>92073</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -328,8 +340,8 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="5648325" y="455000"/>
-          <a:ext cx="4629150" cy="2373923"/>
+          <a:off x="3593306" y="1417025"/>
+          <a:ext cx="4641850" cy="2334236"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -352,9 +364,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -392,7 +404,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -498,7 +510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -640,7 +652,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -650,17 +662,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82FCA5A9-54D7-4647-9C4A-2CF3967AF3D5}">
   <dimension ref="B2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="10.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
+    <col min="3" max="3" width="13.1796875" customWidth="1"/>
+    <col min="4" max="4" width="10.453125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B2" s="4" t="s">
         <v>8</v>
       </c>
@@ -685,74 +699,65 @@
       <c r="K2" t="s">
         <v>0</v>
       </c>
-      <c r="L2">
-        <v>15.65</v>
-      </c>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="L2" s="15">
+        <v>0.61</v>
+      </c>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B3" s="7"/>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="8"/>
       <c r="K3" t="s">
         <v>1</v>
       </c>
       <c r="L3" s="1">
-        <v>80.073863000000003</v>
+        <v>146.38391999999999</v>
       </c>
       <c r="M3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B4" s="7"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="8"/>
       <c r="K4" t="s">
         <v>2</v>
       </c>
       <c r="L4" s="1">
         <f>+L2*L3</f>
-        <v>1253.1559559500001</v>
-      </c>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.2">
+        <v>89.294191199999986</v>
+      </c>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B5" s="7"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="9"/>
+      <c r="H5" s="8"/>
       <c r="K5" t="s">
         <v>3</v>
       </c>
       <c r="L5" s="1">
-        <v>112.015</v>
+        <v>24.916284999999998</v>
       </c>
       <c r="M5" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B6" s="7"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="9"/>
+      <c r="H6" s="8"/>
       <c r="K6" t="s">
         <v>4</v>
       </c>
@@ -760,26 +765,26 @@
         <v>0</v>
       </c>
       <c r="M6" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B7" s="10"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="12"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
+      <c r="B7" s="9"/>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="11"/>
       <c r="K7" t="s">
         <v>5</v>
       </c>
       <c r="L7" s="1">
         <f>+L4-L5+L6</f>
-        <v>1141.14095595</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+        <v>64.377906199999984</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="13" x14ac:dyDescent="0.3">
       <c r="I11" s="3" t="s">
         <v>7</v>
       </c>
@@ -797,27 +802,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D19B52FA-B15A-48A2-8682-74C037ACFFEE}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="14" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>9</v>
       </c>
@@ -825,7 +828,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>10</v>
       </c>
@@ -833,27 +836,27 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="C6" s="13" t="s">
+    <row r="6" spans="1:3" ht="13" x14ac:dyDescent="0.3">
+      <c r="C6" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C7" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C8" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C9" t="s">
         <v>22</v>
       </c>
